--- a/www/IndicatorsPerCountry/SouthAfrica_GDPperCapita_TerritorialRef_1990_2012_CCode_710.xlsx
+++ b/www/IndicatorsPerCountry/SouthAfrica_GDPperCapita_TerritorialRef_1990_2012_CCode_710.xlsx
@@ -579,13 +579,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SouthAfrica_GDPperCapita_TerritorialRef_1990_2012_CCode_710.xlsx
+++ b/www/IndicatorsPerCountry/SouthAfrica_GDPperCapita_TerritorialRef_1990_2012_CCode_710.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="276">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,520 +36,775 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1703</t>
+    <t>2715</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>2581</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>3145</t>
+  </si>
+  <si>
+    <t>3366</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>2314</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>2426</t>
+  </si>
+  <si>
+    <t>2789</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>2609</t>
+  </si>
+  <si>
+    <t>2673</t>
+  </si>
+  <si>
+    <t>2829</t>
+  </si>
+  <si>
+    <t>2813</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2126</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>2351</t>
+  </si>
+  <si>
+    <t>2461</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>2187</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2445</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>2434</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>2632</t>
+  </si>
+  <si>
+    <t>2373</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2697</t>
+  </si>
+  <si>
+    <t>2644</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>2455</t>
+  </si>
+  <si>
+    <t>2495</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2246</t>
+  </si>
+  <si>
+    <t>2294</t>
+  </si>
+  <si>
+    <t>2283</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2562</t>
+  </si>
+  <si>
+    <t>2533</t>
+  </si>
+  <si>
+    <t>2429</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>1626</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1573</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>2122</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1529</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1631</t>
-  </si>
-  <si>
-    <t>1692</t>
-  </si>
-  <si>
-    <t>1524</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>942</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>791</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>868</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>979</t>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1173</t>
   </si>
   <si>
     <t>1092</t>
   </si>
   <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>1151</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1245</t>
-  </si>
-  <si>
-    <t>1439</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>1288</t>
-  </si>
-  <si>
-    <t>990</t>
+    <t>937</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>1218</t>
   </si>
   <si>
     <t>897</t>
   </si>
   <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>1148</t>
-  </si>
-  <si>
-    <t>1196</t>
-  </si>
-  <si>
-    <t>1167</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1293</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>1264</t>
-  </si>
-  <si>
-    <t>1517</t>
-  </si>
-  <si>
-    <t>1332</t>
-  </si>
-  <si>
-    <t>937</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>1721</t>
-  </si>
-  <si>
-    <t>1859</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>1432</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1163</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>1398</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>1335</t>
-  </si>
-  <si>
-    <t>1284</t>
-  </si>
-  <si>
-    <t>1423</t>
-  </si>
-  <si>
-    <t>1577</t>
-  </si>
-  <si>
-    <t>1747</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2038</t>
-  </si>
-  <si>
-    <t>1956</t>
+    <t>960</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>2168</t>
   </si>
   <si>
     <t>2053</t>
   </si>
   <si>
-    <t>2145</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2226</t>
-  </si>
-  <si>
-    <t>2232</t>
-  </si>
-  <si>
-    <t>2265</t>
-  </si>
-  <si>
-    <t>2278</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2288</t>
-  </si>
-  <si>
-    <t>2414</t>
-  </si>
-  <si>
-    <t>2396</t>
-  </si>
-  <si>
-    <t>2535</t>
-  </si>
-  <si>
-    <t>2591</t>
-  </si>
-  <si>
-    <t>2619</t>
-  </si>
-  <si>
-    <t>2675</t>
-  </si>
-  <si>
-    <t>2763</t>
-  </si>
-  <si>
-    <t>2830</t>
-  </si>
-  <si>
-    <t>2914</t>
-  </si>
-  <si>
-    <t>2951</t>
-  </si>
-  <si>
-    <t>2939</t>
-  </si>
-  <si>
-    <t>2995</t>
-  </si>
-  <si>
-    <t>3041</t>
-  </si>
-  <si>
-    <t>3092</t>
-  </si>
-  <si>
-    <t>3179</t>
-  </si>
-  <si>
-    <t>3321</t>
-  </si>
-  <si>
-    <t>3450</t>
-  </si>
-  <si>
-    <t>3559</t>
-  </si>
-  <si>
-    <t>3615</t>
-  </si>
-  <si>
-    <t>3760</t>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1817</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>2571</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>2963</t>
+  </si>
+  <si>
+    <t>2907</t>
+  </si>
+  <si>
+    <t>2391</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>2228</t>
+  </si>
+  <si>
+    <t>2271</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>2386</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>2514</t>
+  </si>
+  <si>
+    <t>2785</t>
+  </si>
+  <si>
+    <t>3048</t>
+  </si>
+  <si>
+    <t>3249</t>
+  </si>
+  <si>
+    <t>3118</t>
+  </si>
+  <si>
+    <t>3272</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>3510</t>
+  </si>
+  <si>
+    <t>3548</t>
+  </si>
+  <si>
+    <t>3558</t>
+  </si>
+  <si>
+    <t>3610</t>
+  </si>
+  <si>
+    <t>3631</t>
+  </si>
+  <si>
+    <t>3684</t>
+  </si>
+  <si>
+    <t>3647</t>
+  </si>
+  <si>
+    <t>3848</t>
   </si>
   <si>
     <t>3819</t>
   </si>
   <si>
-    <t>3946</t>
-  </si>
-  <si>
-    <t>4045</t>
-  </si>
-  <si>
-    <t>4135</t>
-  </si>
-  <si>
-    <t>4109</t>
+    <t>4041</t>
+  </si>
+  <si>
+    <t>4130</t>
   </si>
   <si>
     <t>4175</t>
   </si>
   <si>
-    <t>4299</t>
-  </si>
-  <si>
-    <t>4271</t>
-  </si>
-  <si>
-    <t>4267</t>
-  </si>
-  <si>
-    <t>4155</t>
-  </si>
-  <si>
-    <t>4174</t>
-  </si>
-  <si>
-    <t>4232</t>
-  </si>
-  <si>
-    <t>4390</t>
-  </si>
-  <si>
-    <t>4480</t>
-  </si>
-  <si>
-    <t>4323</t>
-  </si>
-  <si>
-    <t>4112</t>
-  </si>
-  <si>
-    <t>4186</t>
-  </si>
-  <si>
-    <t>4006</t>
-  </si>
-  <si>
-    <t>3912</t>
-  </si>
-  <si>
-    <t>3897</t>
-  </si>
-  <si>
-    <t>3964</t>
-  </si>
-  <si>
-    <t>3956</t>
-  </si>
-  <si>
-    <t>3833.7655911</t>
-  </si>
-  <si>
-    <t>3715.23367207</t>
-  </si>
-  <si>
-    <t>3564.05254337</t>
-  </si>
-  <si>
-    <t>3533.1505808</t>
-  </si>
-  <si>
-    <t>3584.29809157</t>
-  </si>
-  <si>
-    <t>3646.40361164</t>
-  </si>
-  <si>
-    <t>3753.1345545</t>
-  </si>
-  <si>
-    <t>3802.73808675</t>
-  </si>
-  <si>
-    <t>3769.52303266</t>
-  </si>
-  <si>
-    <t>3809.50953224</t>
-  </si>
-  <si>
-    <t>3920.42446204</t>
-  </si>
-  <si>
-    <t>3982.40749233</t>
-  </si>
-  <si>
-    <t>4083.61056884</t>
-  </si>
-  <si>
-    <t>4159.83097768</t>
-  </si>
-  <si>
-    <t>4306.17736064</t>
-  </si>
-  <si>
-    <t>4490.40097129</t>
-  </si>
-  <si>
-    <t>4698.27464071</t>
-  </si>
-  <si>
-    <t>4913.66202626</t>
-  </si>
-  <si>
-    <t>5048.08666012</t>
-  </si>
-  <si>
-    <t>4943.1500827</t>
-  </si>
-  <si>
-    <t>5080.12159047</t>
+    <t>4264</t>
+  </si>
+  <si>
+    <t>4404</t>
+  </si>
+  <si>
+    <t>4511</t>
+  </si>
+  <si>
+    <t>4645</t>
+  </si>
+  <si>
+    <t>4704</t>
+  </si>
+  <si>
+    <t>4685</t>
+  </si>
+  <si>
+    <t>4774</t>
+  </si>
+  <si>
+    <t>4847</t>
+  </si>
+  <si>
+    <t>4929</t>
+  </si>
+  <si>
+    <t>5067</t>
+  </si>
+  <si>
+    <t>5294</t>
+  </si>
+  <si>
+    <t>5499</t>
+  </si>
+  <si>
+    <t>5673</t>
+  </si>
+  <si>
+    <t>5762</t>
+  </si>
+  <si>
+    <t>5993</t>
+  </si>
+  <si>
+    <t>6087</t>
+  </si>
+  <si>
+    <t>6290</t>
+  </si>
+  <si>
+    <t>6448</t>
+  </si>
+  <si>
+    <t>6591</t>
+  </si>
+  <si>
+    <t>6550</t>
+  </si>
+  <si>
+    <t>6655</t>
+  </si>
+  <si>
+    <t>6853</t>
+  </si>
+  <si>
+    <t>6808</t>
+  </si>
+  <si>
+    <t>6802</t>
+  </si>
+  <si>
+    <t>6623</t>
+  </si>
+  <si>
+    <t>6653</t>
+  </si>
+  <si>
+    <t>6746</t>
+  </si>
+  <si>
+    <t>6998</t>
+  </si>
+  <si>
+    <t>7141</t>
+  </si>
+  <si>
+    <t>6891</t>
+  </si>
+  <si>
+    <t>6554</t>
+  </si>
+  <si>
+    <t>6672</t>
+  </si>
+  <si>
+    <t>6385</t>
+  </si>
+  <si>
+    <t>6236</t>
+  </si>
+  <si>
+    <t>6212</t>
+  </si>
+  <si>
+    <t>6319</t>
+  </si>
+  <si>
+    <t>6306</t>
+  </si>
+  <si>
+    <t>6111</t>
+  </si>
+  <si>
+    <t>6034.90055711482</t>
+  </si>
+  <si>
+    <t>5901.98447170031</t>
+  </si>
+  <si>
+    <t>5965.91148741241</t>
+  </si>
+  <si>
+    <t>6172.97361347476</t>
+  </si>
+  <si>
+    <t>6406.42812884184</t>
+  </si>
+  <si>
+    <t>6725.79093583259</t>
+  </si>
+  <si>
+    <t>6950.47164342651</t>
+  </si>
+  <si>
+    <t>7024.29551053247</t>
+  </si>
+  <si>
+    <t>7234.28580399686</t>
+  </si>
+  <si>
+    <t>7582.77814341639</t>
+  </si>
+  <si>
+    <t>7839.62528898219</t>
+  </si>
+  <si>
+    <t>8171.20670729586</t>
+  </si>
+  <si>
+    <t>8451.45249857443</t>
+  </si>
+  <si>
+    <t>8877.92099152592</t>
+  </si>
+  <si>
+    <t>9393.69335105247</t>
+  </si>
+  <si>
+    <t>9978.47096719098</t>
+  </si>
+  <si>
+    <t>10576.2912718102</t>
+  </si>
+  <si>
+    <t>10977.1467973144</t>
+  </si>
+  <si>
+    <t>10873.0463476725</t>
+  </si>
+  <si>
+    <t>11318.6045492623</t>
+  </si>
+  <si>
+    <t>11838</t>
+  </si>
+  <si>
+    <t>11992</t>
+  </si>
+  <si>
+    <t>12171</t>
+  </si>
+  <si>
+    <t>12242</t>
+  </si>
+  <si>
+    <t>12246</t>
+  </si>
+  <si>
+    <t>12139</t>
   </si>
   <si>
     <t>Description</t>
@@ -684,7 +939,7 @@
         <v>1701.0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +973,7 @@
         <v>1703.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -735,7 +990,7 @@
         <v>1704.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -752,7 +1007,7 @@
         <v>1705.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -769,7 +1024,7 @@
         <v>1706.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -786,7 +1041,7 @@
         <v>1707.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +1058,7 @@
         <v>1708.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -820,7 +1075,7 @@
         <v>1709.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -837,7 +1092,7 @@
         <v>1710.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -854,7 +1109,7 @@
         <v>1711.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -871,7 +1126,7 @@
         <v>1712.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -888,7 +1143,7 @@
         <v>1713.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -905,7 +1160,7 @@
         <v>1714.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -922,7 +1177,7 @@
         <v>1715.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -939,7 +1194,7 @@
         <v>1716.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -956,7 +1211,7 @@
         <v>1717.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -973,7 +1228,7 @@
         <v>1718.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -990,7 +1245,7 @@
         <v>1719.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1007,7 +1262,7 @@
         <v>1720.0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1024,7 +1279,7 @@
         <v>1721.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1041,7 +1296,7 @@
         <v>1722.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1058,7 +1313,7 @@
         <v>1723.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1075,7 +1330,7 @@
         <v>1724.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1092,7 +1347,7 @@
         <v>1725.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1109,7 +1364,7 @@
         <v>1726.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1126,7 +1381,7 @@
         <v>1727.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -1143,7 +1398,7 @@
         <v>1728.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -1160,7 +1415,7 @@
         <v>1729.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1177,7 +1432,7 @@
         <v>1730.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1194,7 +1449,7 @@
         <v>1731.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -1211,7 +1466,7 @@
         <v>1732.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -1228,7 +1483,7 @@
         <v>1733.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -1245,7 +1500,7 @@
         <v>1734.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -1262,7 +1517,7 @@
         <v>1735.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -1279,7 +1534,7 @@
         <v>1736.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -1296,7 +1551,7 @@
         <v>1737.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -1313,7 +1568,7 @@
         <v>1738.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -1330,7 +1585,7 @@
         <v>1739.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1347,7 +1602,7 @@
         <v>1740.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1364,7 +1619,7 @@
         <v>1741.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1381,7 +1636,7 @@
         <v>1742.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1398,7 +1653,7 @@
         <v>1743.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1415,7 +1670,7 @@
         <v>1744.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -1432,7 +1687,7 @@
         <v>1745.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1449,7 +1704,7 @@
         <v>1746.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1466,7 +1721,7 @@
         <v>1747.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1483,7 +1738,7 @@
         <v>1748.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1500,7 +1755,7 @@
         <v>1749.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1517,7 +1772,7 @@
         <v>1750.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1534,7 +1789,7 @@
         <v>1751.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1551,7 +1806,7 @@
         <v>1752.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1568,7 +1823,7 @@
         <v>1753.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1840,7 @@
         <v>1754.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
@@ -1602,7 +1857,7 @@
         <v>1755.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -1619,7 +1874,7 @@
         <v>1756.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -1636,7 +1891,7 @@
         <v>1757.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -1653,7 +1908,7 @@
         <v>1758.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
@@ -1670,7 +1925,7 @@
         <v>1759.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
@@ -1687,7 +1942,7 @@
         <v>1760.0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63">
@@ -1704,7 +1959,7 @@
         <v>1761.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
@@ -1721,7 +1976,7 @@
         <v>1762.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
@@ -1738,7 +1993,7 @@
         <v>1763.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
@@ -1755,7 +2010,7 @@
         <v>1764.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +2027,7 @@
         <v>1765.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
@@ -1789,7 +2044,7 @@
         <v>1766.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
@@ -1806,7 +2061,7 @@
         <v>1767.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
@@ -1823,7 +2078,7 @@
         <v>1768.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -1840,7 +2095,7 @@
         <v>1769.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
@@ -1857,7 +2112,7 @@
         <v>1770.0</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
@@ -1874,7 +2129,7 @@
         <v>1771.0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
@@ -1891,7 +2146,7 @@
         <v>1772.0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
@@ -1908,7 +2163,7 @@
         <v>1773.0</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
@@ -1925,7 +2180,7 @@
         <v>1774.0</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -1942,7 +2197,7 @@
         <v>1775.0</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
@@ -1959,7 +2214,7 @@
         <v>1776.0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
@@ -1976,7 +2231,7 @@
         <v>1777.0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
@@ -1993,7 +2248,7 @@
         <v>1778.0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
@@ -2010,7 +2265,7 @@
         <v>1779.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
@@ -2027,7 +2282,7 @@
         <v>1780.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
@@ -2044,7 +2299,7 @@
         <v>1781.0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
@@ -2061,7 +2316,7 @@
         <v>1782.0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
@@ -2078,7 +2333,7 @@
         <v>1783.0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
@@ -2095,7 +2350,7 @@
         <v>1784.0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
@@ -2112,7 +2367,7 @@
         <v>1785.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
@@ -2129,7 +2384,7 @@
         <v>1786.0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
@@ -2146,7 +2401,7 @@
         <v>1787.0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2418,7 @@
         <v>1788.0</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
@@ -2180,7 +2435,7 @@
         <v>1789.0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
@@ -2197,7 +2452,7 @@
         <v>1790.0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
@@ -2214,7 +2469,7 @@
         <v>1791.0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">
@@ -2231,7 +2486,7 @@
         <v>1792.0</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -2248,7 +2503,7 @@
         <v>1793.0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
@@ -2265,7 +2520,7 @@
         <v>1794.0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
@@ -2282,7 +2537,7 @@
         <v>1795.0</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
@@ -2299,7 +2554,7 @@
         <v>1796.0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -2316,7 +2571,7 @@
         <v>1797.0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
@@ -2333,7 +2588,7 @@
         <v>1798.0</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
@@ -2350,7 +2605,7 @@
         <v>1799.0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102">
@@ -2367,7 +2622,7 @@
         <v>1800.0</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
@@ -2384,7 +2639,7 @@
         <v>1801.0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
@@ -2401,7 +2656,7 @@
         <v>1802.0</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
@@ -2418,7 +2673,7 @@
         <v>1803.0</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106">
@@ -2435,7 +2690,7 @@
         <v>1804.0</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107">
@@ -2452,7 +2707,7 @@
         <v>1805.0</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108">
@@ -2469,7 +2724,7 @@
         <v>1806.0</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109">
@@ -2486,7 +2741,7 @@
         <v>1807.0</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
@@ -2503,7 +2758,7 @@
         <v>1808.0</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111">
@@ -2520,7 +2775,7 @@
         <v>1809.0</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112">
@@ -2537,7 +2792,7 @@
         <v>1810.0</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
@@ -2554,7 +2809,7 @@
         <v>1811.0</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
@@ -2571,7 +2826,7 @@
         <v>1812.0</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
@@ -2588,7 +2843,7 @@
         <v>1813.0</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
@@ -2605,7 +2860,7 @@
         <v>1814.0</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117">
@@ -2622,7 +2877,7 @@
         <v>1815.0</v>
       </c>
       <c r="E117" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
@@ -2639,7 +2894,7 @@
         <v>1816.0</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119">
@@ -2656,7 +2911,7 @@
         <v>1817.0</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120">
@@ -2673,7 +2928,7 @@
         <v>1818.0</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121">
@@ -2690,7 +2945,7 @@
         <v>1819.0</v>
       </c>
       <c r="E121" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
@@ -2707,7 +2962,7 @@
         <v>1820.0</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
@@ -2724,7 +2979,7 @@
         <v>1821.0</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
@@ -2741,7 +2996,7 @@
         <v>1822.0</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
@@ -2758,7 +3013,7 @@
         <v>1823.0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126">
@@ -2775,7 +3030,7 @@
         <v>1824.0</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
@@ -2792,7 +3047,7 @@
         <v>1825.0</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
@@ -2809,7 +3064,7 @@
         <v>1826.0</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
@@ -2826,7 +3081,7 @@
         <v>1827.0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130">
@@ -2843,7 +3098,7 @@
         <v>1828.0</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
@@ -2860,7 +3115,7 @@
         <v>1829.0</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132">
@@ -2877,7 +3132,7 @@
         <v>1830.0</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133">
@@ -2894,7 +3149,7 @@
         <v>1831.0</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134">
@@ -2911,7 +3166,7 @@
         <v>1832.0</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135">
@@ -2928,7 +3183,7 @@
         <v>1833.0</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136">
@@ -2945,7 +3200,7 @@
         <v>1834.0</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
@@ -2962,7 +3217,7 @@
         <v>1835.0</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
@@ -2979,7 +3234,7 @@
         <v>1836.0</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139">
@@ -2996,7 +3251,7 @@
         <v>1837.0</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140">
@@ -3013,7 +3268,7 @@
         <v>1838.0</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141">
@@ -3030,7 +3285,7 @@
         <v>1839.0</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142">
@@ -3047,7 +3302,7 @@
         <v>1840.0</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
@@ -3064,7 +3319,7 @@
         <v>1841.0</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144">
@@ -3081,7 +3336,7 @@
         <v>1842.0</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145">
@@ -3098,7 +3353,7 @@
         <v>1843.0</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146">
@@ -3115,7 +3370,7 @@
         <v>1844.0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147">
@@ -3132,7 +3387,7 @@
         <v>1845.0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148">
@@ -3149,7 +3404,7 @@
         <v>1846.0</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149">
@@ -3166,7 +3421,7 @@
         <v>1847.0</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
@@ -3183,7 +3438,7 @@
         <v>1848.0</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="151">
@@ -3200,7 +3455,7 @@
         <v>1849.0</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152">
@@ -3217,7 +3472,7 @@
         <v>1850.0</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153">
@@ -3234,7 +3489,7 @@
         <v>1851.0</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154">
@@ -3251,7 +3506,7 @@
         <v>1852.0</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155">
@@ -3268,7 +3523,7 @@
         <v>1853.0</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156">
@@ -3285,7 +3540,7 @@
         <v>1854.0</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157">
@@ -3302,7 +3557,7 @@
         <v>1855.0</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158">
@@ -3319,7 +3574,7 @@
         <v>1856.0</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159">
@@ -3336,7 +3591,7 @@
         <v>1857.0</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160">
@@ -3353,7 +3608,7 @@
         <v>1858.0</v>
       </c>
       <c r="E160" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161">
@@ -3370,7 +3625,7 @@
         <v>1859.0</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162">
@@ -3387,7 +3642,7 @@
         <v>1860.0</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
@@ -3404,7 +3659,7 @@
         <v>1861.0</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164">
@@ -3421,7 +3676,7 @@
         <v>1862.0</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165">
@@ -3438,7 +3693,7 @@
         <v>1863.0</v>
       </c>
       <c r="E165" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166">
@@ -3455,7 +3710,7 @@
         <v>1864.0</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167">
@@ -3472,7 +3727,7 @@
         <v>1865.0</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
@@ -3489,7 +3744,7 @@
         <v>1866.0</v>
       </c>
       <c r="E168" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169">
@@ -3506,7 +3761,7 @@
         <v>1867.0</v>
       </c>
       <c r="E169" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
@@ -3523,7 +3778,7 @@
         <v>1868.0</v>
       </c>
       <c r="E170" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171">
@@ -3540,7 +3795,7 @@
         <v>1869.0</v>
       </c>
       <c r="E171" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
@@ -3557,7 +3812,7 @@
         <v>1870.0</v>
       </c>
       <c r="E172" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173">
@@ -3574,7 +3829,7 @@
         <v>1871.0</v>
       </c>
       <c r="E173" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
@@ -3591,7 +3846,7 @@
         <v>1872.0</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175">
@@ -3608,7 +3863,7 @@
         <v>1873.0</v>
       </c>
       <c r="E175" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176">
@@ -3625,7 +3880,7 @@
         <v>1874.0</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177">
@@ -3642,7 +3897,7 @@
         <v>1875.0</v>
       </c>
       <c r="E177" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
@@ -3659,7 +3914,7 @@
         <v>1876.0</v>
       </c>
       <c r="E178" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179">
@@ -3676,7 +3931,7 @@
         <v>1877.0</v>
       </c>
       <c r="E179" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -3693,7 +3948,7 @@
         <v>1878.0</v>
       </c>
       <c r="E180" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181">
@@ -3710,7 +3965,7 @@
         <v>1879.0</v>
       </c>
       <c r="E181" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182">
@@ -3727,7 +3982,7 @@
         <v>1880.0</v>
       </c>
       <c r="E182" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183">
@@ -3744,7 +3999,7 @@
         <v>1881.0</v>
       </c>
       <c r="E183" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
@@ -3761,7 +4016,7 @@
         <v>1882.0</v>
       </c>
       <c r="E184" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185">
@@ -3778,7 +4033,7 @@
         <v>1883.0</v>
       </c>
       <c r="E185" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
@@ -3795,7 +4050,7 @@
         <v>1884.0</v>
       </c>
       <c r="E186" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187">
@@ -3812,7 +4067,7 @@
         <v>1885.0</v>
       </c>
       <c r="E187" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188">
@@ -3829,7 +4084,7 @@
         <v>1886.0</v>
       </c>
       <c r="E188" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189">
@@ -3846,7 +4101,7 @@
         <v>1887.0</v>
       </c>
       <c r="E189" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190">
@@ -3863,7 +4118,7 @@
         <v>1888.0</v>
       </c>
       <c r="E190" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191">
@@ -3880,7 +4135,7 @@
         <v>1889.0</v>
       </c>
       <c r="E191" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192">
@@ -3897,7 +4152,7 @@
         <v>1890.0</v>
       </c>
       <c r="E192" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
     </row>
     <row r="193">
@@ -3914,7 +4169,7 @@
         <v>1891.0</v>
       </c>
       <c r="E193" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194">
@@ -3931,7 +4186,7 @@
         <v>1892.0</v>
       </c>
       <c r="E194" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195">
@@ -3948,7 +4203,7 @@
         <v>1893.0</v>
       </c>
       <c r="E195" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196">
@@ -3965,7 +4220,7 @@
         <v>1894.0</v>
       </c>
       <c r="E196" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
@@ -3982,7 +4237,7 @@
         <v>1895.0</v>
       </c>
       <c r="E197" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198">
@@ -3999,7 +4254,7 @@
         <v>1896.0</v>
       </c>
       <c r="E198" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199">
@@ -4016,7 +4271,7 @@
         <v>1897.0</v>
       </c>
       <c r="E199" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200">
@@ -4033,7 +4288,7 @@
         <v>1898.0</v>
       </c>
       <c r="E200" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201">
@@ -4050,7 +4305,7 @@
         <v>1899.0</v>
       </c>
       <c r="E201" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202">
@@ -4067,7 +4322,7 @@
         <v>1900.0</v>
       </c>
       <c r="E202" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203">
@@ -4084,7 +4339,7 @@
         <v>1901.0</v>
       </c>
       <c r="E203" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204">
@@ -4101,7 +4356,7 @@
         <v>1902.0</v>
       </c>
       <c r="E204" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="205">
@@ -4118,7 +4373,7 @@
         <v>1903.0</v>
       </c>
       <c r="E205" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206">
@@ -4135,7 +4390,7 @@
         <v>1904.0</v>
       </c>
       <c r="E206" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207">
@@ -4152,7 +4407,7 @@
         <v>1905.0</v>
       </c>
       <c r="E207" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208">
@@ -4169,7 +4424,7 @@
         <v>1906.0</v>
       </c>
       <c r="E208" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209">
@@ -4186,7 +4441,7 @@
         <v>1907.0</v>
       </c>
       <c r="E209" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
@@ -4203,7 +4458,7 @@
         <v>1908.0</v>
       </c>
       <c r="E210" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211">
@@ -4220,7 +4475,7 @@
         <v>1909.0</v>
       </c>
       <c r="E211" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212">
@@ -4237,7 +4492,7 @@
         <v>1910.0</v>
       </c>
       <c r="E212" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
@@ -4254,7 +4509,7 @@
         <v>1911.0</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="214">
@@ -4271,7 +4526,7 @@
         <v>1912.0</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="215">
@@ -4288,7 +4543,7 @@
         <v>1913.0</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216">
@@ -4305,7 +4560,7 @@
         <v>1914.0</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="217">
@@ -4322,7 +4577,7 @@
         <v>1915.0</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="218">
@@ -4339,7 +4594,7 @@
         <v>1916.0</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="219">
@@ -4356,7 +4611,7 @@
         <v>1917.0</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="220">
@@ -4373,7 +4628,7 @@
         <v>1918.0</v>
       </c>
       <c r="E220" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
@@ -4390,7 +4645,7 @@
         <v>1919.0</v>
       </c>
       <c r="E221" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="222">
@@ -4407,7 +4662,7 @@
         <v>1920.0</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="223">
@@ -4424,7 +4679,7 @@
         <v>1921.0</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224">
@@ -4441,7 +4696,7 @@
         <v>1922.0</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="225">
@@ -4458,7 +4713,7 @@
         <v>1923.0</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="226">
@@ -4475,7 +4730,7 @@
         <v>1924.0</v>
       </c>
       <c r="E226" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227">
@@ -4492,7 +4747,7 @@
         <v>1925.0</v>
       </c>
       <c r="E227" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228">
@@ -4509,7 +4764,7 @@
         <v>1926.0</v>
       </c>
       <c r="E228" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229">
@@ -4526,7 +4781,7 @@
         <v>1927.0</v>
       </c>
       <c r="E229" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230">
@@ -4543,7 +4798,7 @@
         <v>1928.0</v>
       </c>
       <c r="E230" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231">
@@ -4560,7 +4815,7 @@
         <v>1929.0</v>
       </c>
       <c r="E231" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232">
@@ -4577,7 +4832,7 @@
         <v>1930.0</v>
       </c>
       <c r="E232" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233">
@@ -4594,7 +4849,7 @@
         <v>1931.0</v>
       </c>
       <c r="E233" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234">
@@ -4611,7 +4866,7 @@
         <v>1932.0</v>
       </c>
       <c r="E234" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="235">
@@ -4628,7 +4883,7 @@
         <v>1933.0</v>
       </c>
       <c r="E235" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
@@ -4645,7 +4900,7 @@
         <v>1934.0</v>
       </c>
       <c r="E236" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
     </row>
     <row r="237">
@@ -4662,7 +4917,7 @@
         <v>1935.0</v>
       </c>
       <c r="E237" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238">
@@ -4679,7 +4934,7 @@
         <v>1936.0</v>
       </c>
       <c r="E238" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="239">
@@ -4696,7 +4951,7 @@
         <v>1937.0</v>
       </c>
       <c r="E239" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="240">
@@ -4713,7 +4968,7 @@
         <v>1938.0</v>
       </c>
       <c r="E240" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241">
@@ -4730,7 +4985,7 @@
         <v>1939.0</v>
       </c>
       <c r="E241" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242">
@@ -4747,7 +5002,7 @@
         <v>1940.0</v>
       </c>
       <c r="E242" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243">
@@ -4764,7 +5019,7 @@
         <v>1941.0</v>
       </c>
       <c r="E243" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
     </row>
     <row r="244">
@@ -4781,7 +5036,7 @@
         <v>1942.0</v>
       </c>
       <c r="E244" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
     </row>
     <row r="245">
@@ -4798,7 +5053,7 @@
         <v>1943.0</v>
       </c>
       <c r="E245" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
     </row>
     <row r="246">
@@ -4815,7 +5070,7 @@
         <v>1944.0</v>
       </c>
       <c r="E246" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
     </row>
     <row r="247">
@@ -4832,7 +5087,7 @@
         <v>1945.0</v>
       </c>
       <c r="E247" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="248">
@@ -4849,7 +5104,7 @@
         <v>1946.0</v>
       </c>
       <c r="E248" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
     </row>
     <row r="249">
@@ -4866,7 +5121,7 @@
         <v>1947.0</v>
       </c>
       <c r="E249" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
     </row>
     <row r="250">
@@ -4883,7 +5138,7 @@
         <v>1948.0</v>
       </c>
       <c r="E250" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
     </row>
     <row r="251">
@@ -4900,7 +5155,7 @@
         <v>1949.0</v>
       </c>
       <c r="E251" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
     </row>
     <row r="252">
@@ -4917,7 +5172,7 @@
         <v>1950.0</v>
       </c>
       <c r="E252" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="253">
@@ -4934,7 +5189,7 @@
         <v>1951.0</v>
       </c>
       <c r="E253" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
     </row>
     <row r="254">
@@ -4951,7 +5206,7 @@
         <v>1952.0</v>
       </c>
       <c r="E254" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="255">
@@ -4968,7 +5223,7 @@
         <v>1953.0</v>
       </c>
       <c r="E255" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
     </row>
     <row r="256">
@@ -4985,7 +5240,7 @@
         <v>1954.0</v>
       </c>
       <c r="E256" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257">
@@ -5002,7 +5257,7 @@
         <v>1955.0</v>
       </c>
       <c r="E257" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258">
@@ -5019,7 +5274,7 @@
         <v>1956.0</v>
       </c>
       <c r="E258" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259">
@@ -5036,7 +5291,7 @@
         <v>1957.0</v>
       </c>
       <c r="E259" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="260">
@@ -5053,7 +5308,7 @@
         <v>1958.0</v>
       </c>
       <c r="E260" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261">
@@ -5070,7 +5325,7 @@
         <v>1959.0</v>
       </c>
       <c r="E261" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262">
@@ -5087,7 +5342,7 @@
         <v>1960.0</v>
       </c>
       <c r="E262" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263">
@@ -5104,7 +5359,7 @@
         <v>1961.0</v>
       </c>
       <c r="E263" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
     </row>
     <row r="264">
@@ -5121,7 +5376,7 @@
         <v>1962.0</v>
       </c>
       <c r="E264" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
     </row>
     <row r="265">
@@ -5138,7 +5393,7 @@
         <v>1963.0</v>
       </c>
       <c r="E265" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
     </row>
     <row r="266">
@@ -5155,7 +5410,7 @@
         <v>1964.0</v>
       </c>
       <c r="E266" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
     </row>
     <row r="267">
@@ -5172,7 +5427,7 @@
         <v>1965.0</v>
       </c>
       <c r="E267" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268">
@@ -5189,7 +5444,7 @@
         <v>1966.0</v>
       </c>
       <c r="E268" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="269">
@@ -5206,7 +5461,7 @@
         <v>1967.0</v>
       </c>
       <c r="E269" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
     </row>
     <row r="270">
@@ -5223,7 +5478,7 @@
         <v>1968.0</v>
       </c>
       <c r="E270" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
     </row>
     <row r="271">
@@ -5240,7 +5495,7 @@
         <v>1969.0</v>
       </c>
       <c r="E271" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272">
@@ -5257,7 +5512,7 @@
         <v>1970.0</v>
       </c>
       <c r="E272" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
     </row>
     <row r="273">
@@ -5274,7 +5529,7 @@
         <v>1971.0</v>
       </c>
       <c r="E273" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
     </row>
     <row r="274">
@@ -5291,7 +5546,7 @@
         <v>1972.0</v>
       </c>
       <c r="E274" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
     </row>
     <row r="275">
@@ -5308,7 +5563,7 @@
         <v>1973.0</v>
       </c>
       <c r="E275" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
     </row>
     <row r="276">
@@ -5325,7 +5580,7 @@
         <v>1974.0</v>
       </c>
       <c r="E276" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
     </row>
     <row r="277">
@@ -5342,7 +5597,7 @@
         <v>1975.0</v>
       </c>
       <c r="E277" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278">
@@ -5359,7 +5614,7 @@
         <v>1976.0</v>
       </c>
       <c r="E278" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="279">
@@ -5376,7 +5631,7 @@
         <v>1977.0</v>
       </c>
       <c r="E279" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
     </row>
     <row r="280">
@@ -5393,7 +5648,7 @@
         <v>1978.0</v>
       </c>
       <c r="E280" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
     </row>
     <row r="281">
@@ -5410,7 +5665,7 @@
         <v>1979.0</v>
       </c>
       <c r="E281" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
     </row>
     <row r="282">
@@ -5427,7 +5682,7 @@
         <v>1980.0</v>
       </c>
       <c r="E282" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
     </row>
     <row r="283">
@@ -5444,7 +5699,7 @@
         <v>1981.0</v>
       </c>
       <c r="E283" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
     </row>
     <row r="284">
@@ -5461,7 +5716,7 @@
         <v>1982.0</v>
       </c>
       <c r="E284" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
     </row>
     <row r="285">
@@ -5478,7 +5733,7 @@
         <v>1983.0</v>
       </c>
       <c r="E285" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
     </row>
     <row r="286">
@@ -5495,7 +5750,7 @@
         <v>1984.0</v>
       </c>
       <c r="E286" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
     </row>
     <row r="287">
@@ -5512,7 +5767,7 @@
         <v>1985.0</v>
       </c>
       <c r="E287" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288">
@@ -5529,7 +5784,7 @@
         <v>1986.0</v>
       </c>
       <c r="E288" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
     </row>
     <row r="289">
@@ -5546,7 +5801,7 @@
         <v>1987.0</v>
       </c>
       <c r="E289" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
     </row>
     <row r="290">
@@ -5563,7 +5818,7 @@
         <v>1988.0</v>
       </c>
       <c r="E290" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
     </row>
     <row r="291">
@@ -5580,7 +5835,7 @@
         <v>1989.0</v>
       </c>
       <c r="E291" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="292">
@@ -5597,7 +5852,7 @@
         <v>1990.0</v>
       </c>
       <c r="E292" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
     </row>
     <row r="293">
@@ -5614,7 +5869,7 @@
         <v>1991.0</v>
       </c>
       <c r="E293" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
     </row>
     <row r="294">
@@ -5631,7 +5886,7 @@
         <v>1992.0</v>
       </c>
       <c r="E294" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
     </row>
     <row r="295">
@@ -5648,7 +5903,7 @@
         <v>1993.0</v>
       </c>
       <c r="E295" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
     </row>
     <row r="296">
@@ -5665,7 +5920,7 @@
         <v>1994.0</v>
       </c>
       <c r="E296" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
     <row r="297">
@@ -5682,7 +5937,7 @@
         <v>1995.0</v>
       </c>
       <c r="E297" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298">
@@ -5699,7 +5954,7 @@
         <v>1996.0</v>
       </c>
       <c r="E298" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
     </row>
     <row r="299">
@@ -5716,7 +5971,7 @@
         <v>1997.0</v>
       </c>
       <c r="E299" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
     </row>
     <row r="300">
@@ -5733,7 +5988,7 @@
         <v>1998.0</v>
       </c>
       <c r="E300" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="301">
@@ -5750,7 +6005,7 @@
         <v>1999.0</v>
       </c>
       <c r="E301" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
     </row>
     <row r="302">
@@ -5767,7 +6022,7 @@
         <v>2000.0</v>
       </c>
       <c r="E302" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
     </row>
     <row r="303">
@@ -5784,7 +6039,7 @@
         <v>2001.0</v>
       </c>
       <c r="E303" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
     </row>
     <row r="304">
@@ -5801,7 +6056,7 @@
         <v>2002.0</v>
       </c>
       <c r="E304" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
     </row>
     <row r="305">
@@ -5818,7 +6073,7 @@
         <v>2003.0</v>
       </c>
       <c r="E305" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
     </row>
     <row r="306">
@@ -5835,7 +6090,7 @@
         <v>2004.0</v>
       </c>
       <c r="E306" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
     </row>
     <row r="307">
@@ -5852,7 +6107,7 @@
         <v>2005.0</v>
       </c>
       <c r="E307" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
     </row>
     <row r="308">
@@ -5869,7 +6124,7 @@
         <v>2006.0</v>
       </c>
       <c r="E308" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
     </row>
     <row r="309">
@@ -5886,7 +6141,7 @@
         <v>2007.0</v>
       </c>
       <c r="E309" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
     </row>
     <row r="310">
@@ -5903,7 +6158,7 @@
         <v>2008.0</v>
       </c>
       <c r="E310" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
     </row>
     <row r="311">
@@ -5920,7 +6175,7 @@
         <v>2009.0</v>
       </c>
       <c r="E311" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="312">
@@ -5937,7 +6192,109 @@
         <v>2010.0</v>
       </c>
       <c r="E312" t="s">
-        <v>178</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E313" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5955,50 +6312,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
